--- a/biology/Biochimie/Électrolyte_sanguin/Électrolyte_sanguin.xlsx
+++ b/biology/Biochimie/Électrolyte_sanguin/Électrolyte_sanguin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lectrolyte_sanguin</t>
+          <t>Électrolyte_sanguin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le terme d'électrolytes sanguins est parfois utilisé de façon informelle pour désigner les sels minéraux en circulation dans le sang et qui font du plasma sanguin un électrolyte. Ces sels minéraux, présents sous forme d'ions, ont un rôle précis dans l'organisme.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lectrolyte_sanguin</t>
+          <t>Électrolyte_sanguin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>le sodium (Na+) modifie la distribution de l'eau dans l'organisme. Le dosage de Na dénote l'équilibre hydrique, c'est-à-dire s'il y a excès ou déficit de volume liquide ;
 le potassium (K+) maintient l'équilibre osmotique cellulaire et est un indicateur de la fonction rénale ;
